--- a/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
+++ b/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515110</t>
+          <t>515150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证国企一带一路ETF</t>
+          <t>富国中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.83</t>
+          <t>22.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515150</t>
+          <t>515110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证国企一带一路ETF</t>
+          <t>易方达中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.67</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>96.96</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.63</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>73.61</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.19</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320018</t>
+          <t>515150</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安新动力混合</t>
+          <t>富国中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -688,15 +758,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>99.12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515150</t>
+          <t>515990</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证国企一带一路ETF</t>
+          <t>汇添富中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.72</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515990</t>
+          <t>320018</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证国企一带一路ETF</t>
+          <t>诺安新动力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.53</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
+++ b/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
+++ b/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7830</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
+++ b/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
+++ b/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.52</v>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.96</v>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9540</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.88</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
+++ b/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1951,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,17 +1963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.92</v>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8383</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1998,14 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.52</v>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4666</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2014,14 +2079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.96</v>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2030,14 +2117,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.88</v>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2046,13 +2155,1269 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
+++ b/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3300,7 +3301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3311,17 +3312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3331,14 +3352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.03</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3347,14 +3390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.92</v>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7849</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3363,14 +3428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -3379,14 +3466,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.96</v>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3395,14 +3504,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.88</v>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3411,13 +3542,1513 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
+++ b/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>6.15</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>4.03</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>5.92</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.52</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.96</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -600,6 +617,3634 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8359</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0049</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6983</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5720</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5671</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5355</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5312</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4652</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3811</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011050</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘裕新混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘恒新混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011051</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘裕新混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘恒新混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2213,7 +5858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3561,7 +7206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4149,7 +7794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4471,7 +8116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4641,7 +8286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4887,7 +8532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
+++ b/数据整理/stocks/A股/上证主板/601872-招商轮船.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>15.12</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>6.15</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>4.03</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>5.92</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.52</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.96</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -616,7 +633,2019 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8733</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6245</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007315</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010270</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4244,7 +6273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5858,7 +7887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7206,7 +9235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7794,7 +9823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8116,7 +10145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8286,7 +10315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8530,174 +10559,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515150</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3731</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515110</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2032</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515990</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>